--- a/model/kport/kport.xlsx
+++ b/model/kport/kport.xlsx
@@ -211,7 +211,7 @@
     <t>Cost Header</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>Cost report</t>
   </si>
   <si>
     <t>Surplus</t>
